--- a/Project Logs/ProjectLog3.xlsx
+++ b/Project Logs/ProjectLog3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Documents\GitHub\RealImaginary\Project Logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\document\RealImaginary\Project Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Tasks</t>
   </si>
@@ -54,7 +54,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -75,7 +75,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -90,7 +90,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -105,7 +105,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="新細明體"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -135,6 +135,18 @@
   </si>
   <si>
     <t xml:space="preserve">    Records display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Administratin - listing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Administration - agent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jimmi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -145,14 +157,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -160,7 +165,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -168,8 +173,15 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -195,8 +207,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -478,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
@@ -562,49 +574,67 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>